--- a/ShoppingCar/Excel/ExcelCreateFormat.xlsx
+++ b/ShoppingCar/Excel/ExcelCreateFormat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20346"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED99F02-F3E7-430C-A020-29BC61D4B14D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CA1967-F3BD-4248-A9CA-3C3F3D55E70E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>產品編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,18 @@
   <si>
     <t>產品價錢</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄1</t>
+  </si>
+  <si>
+    <t>欄2</t>
+  </si>
+  <si>
+    <t>欄3</t>
+  </si>
+  <si>
+    <t>欄4</t>
   </si>
 </sst>
 </file>
@@ -66,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -74,17 +86,270 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -95,6 +360,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7474D1B-BA2D-4420-837B-8CFF9DE31339}" name="表格1" displayName="表格1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:D5" xr:uid="{695879D6-7005-4C47-8324-23A20DE79EB3}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B3AE5BD0-EC30-495C-A719-19533817DBA7}" name="欄1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{84B7A21D-F60B-4EB2-A77D-A37CECC98538}" name="欄2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{4B59D09C-B146-4789-A152-B077EE6BFC77}" name="欄3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{A3817B6E-70DC-44EB-9044-EF973902ABCB}" name="欄4" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -375,22 +653,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/ShoppingCar/Excel/ExcelCreateFormat.xlsx
+++ b/ShoppingCar/Excel/ExcelCreateFormat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20346"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CA1967-F3BD-4248-A9CA-3C3F3D55E70E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8837E9-380F-4E30-9CBD-2F11D34E0733}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>產品編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,18 +36,6 @@
   <si>
     <t>產品價錢</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄1</t>
-  </si>
-  <si>
-    <t>欄2</t>
-  </si>
-  <si>
-    <t>欄3</t>
-  </si>
-  <si>
-    <t>欄4</t>
   </si>
 </sst>
 </file>
@@ -222,6 +210,120 @@
         <left style="thin">
           <color auto="1"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
         <right style="thin">
           <color auto="1"/>
         </right>
@@ -233,120 +335,6 @@
         <horizontal style="thin">
           <color auto="1"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -363,13 +351,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7474D1B-BA2D-4420-837B-8CFF9DE31339}" name="表格1" displayName="表格1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7474D1B-BA2D-4420-837B-8CFF9DE31339}" name="表格1" displayName="表格1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D5" xr:uid="{695879D6-7005-4C47-8324-23A20DE79EB3}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B3AE5BD0-EC30-495C-A719-19533817DBA7}" name="欄1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{84B7A21D-F60B-4EB2-A77D-A37CECC98538}" name="欄2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{4B59D09C-B146-4789-A152-B077EE6BFC77}" name="欄3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{A3817B6E-70DC-44EB-9044-EF973902ABCB}" name="欄4" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B3AE5BD0-EC30-495C-A719-19533817DBA7}" name="產品編號" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{84B7A21D-F60B-4EB2-A77D-A37CECC98538}" name="產品名稱" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{4B59D09C-B146-4789-A152-B077EE6BFC77}" name="產品說明" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A3817B6E-70DC-44EB-9044-EF973902ABCB}" name="產品價錢" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -641,7 +629,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -654,31 +642,23 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
